--- a/audiencias.xlsx
+++ b/audiencias.xlsx
@@ -18613,7 +18613,7 @@
   <dimension ref="A1:G2222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
